--- a/Documents/gittest/Wireframe_cuihaili.xlsx
+++ b/Documents/gittest/Wireframe_cuihaili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaiLiCui\Desktop\Stackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA94926-F1CE-40F9-954D-7C3F2D811F51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426298A7-AAA3-40DB-A6DD-6902E14574EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>Password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,12 +248,77 @@
     <t>3.Home Page screen(Buyer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Data From</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data To</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone2</t>
+  </si>
+  <si>
+    <t>iphone3</t>
+  </si>
+  <si>
+    <t>Electronic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Total Sales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <numFmts count="1">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +383,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -333,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -582,11 +654,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -656,12 +758,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -677,7 +773,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,9 +791,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="24" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="24" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5895,7 +6012,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>207612</xdr:colOff>
+      <xdr:colOff>207613</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>14942</xdr:rowOff>
     </xdr:to>
@@ -5939,7 +6056,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>575236</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>97118</xdr:rowOff>
     </xdr:to>
@@ -5981,6 +6098,138 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flowchart: Process 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1F2B77-13FF-4441-A5EB-B3AAF3CEFD88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="9779000"/>
+          <a:ext cx="714561" cy="175933"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Search</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171824</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1402781</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>67447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Flowchart: Process 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051FF4DE-839C-4088-8B03-4111F7223BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4669118" y="11982823"/>
+          <a:ext cx="1230957" cy="246742"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>Back</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0"/>
+            <a:t> to Home Page</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6306,8 +6555,8 @@
       <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="12"/>
       <c r="H6" s="33"/>
       <c r="I6" s="6"/>
@@ -6315,8 +6564,8 @@
       <c r="M6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="33"/>
     </row>
@@ -6340,8 +6589,8 @@
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="6"/>
       <c r="H8" s="33"/>
       <c r="I8" s="6"/>
@@ -6349,8 +6598,8 @@
       <c r="M8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="53"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="33"/>
     </row>
@@ -6384,8 +6633,8 @@
       <c r="M10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="33"/>
     </row>
@@ -6415,12 +6664,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="33"/>
       <c r="I12" s="6"/>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="33"/>
     </row>
@@ -6707,10 +6956,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="5"/>
-      <c r="N33" s="49" t="s">
+      <c r="N33" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="O33" s="49"/>
+      <c r="O33" s="47"/>
       <c r="P33" s="17" t="s">
         <v>21</v>
       </c>
@@ -6727,8 +6976,8 @@
       <c r="I34" s="6"/>
       <c r="L34" s="38"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="33"/>
@@ -6765,8 +7014,8 @@
       <c r="I36" s="6"/>
       <c r="L36" s="32"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="33"/>
@@ -6799,10 +7048,10 @@
         <v>13</v>
       </c>
       <c r="M38" s="25"/>
-      <c r="N38" s="49" t="s">
+      <c r="N38" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="49"/>
+      <c r="O38" s="47"/>
       <c r="P38" s="17" t="s">
         <v>23</v>
       </c>
@@ -7123,14 +7372,14 @@
     <row r="58" spans="2:19">
       <c r="B58" s="39"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="51" t="s">
+      <c r="E58" s="48"/>
+      <c r="F58" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="51"/>
+      <c r="G58" s="49"/>
       <c r="H58" s="7"/>
       <c r="I58" s="33"/>
       <c r="J58" s="6"/>
@@ -7686,6 +7935,11 @@
     <row r="98" spans="2:9" ht="13" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="N38:O38"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="F58:G58"/>
@@ -7694,11 +7948,6 @@
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7709,17 +7958,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AA8538-0651-40F2-B141-2EF200B3DC64}">
-  <dimension ref="C2:Q44"/>
+  <dimension ref="C2:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.83203125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.6640625" style="1"/>
     <col min="9" max="9" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -7768,8 +8016,8 @@
       <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="12"/>
       <c r="H6" s="33"/>
       <c r="I6" s="6"/>
@@ -7777,8 +8025,8 @@
       <c r="M6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="33"/>
     </row>
@@ -7802,8 +8050,8 @@
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="6"/>
       <c r="H8" s="33"/>
       <c r="I8" s="6"/>
@@ -7811,8 +8059,8 @@
       <c r="M8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="53"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="33"/>
     </row>
@@ -7845,8 +8093,8 @@
       <c r="M10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="33"/>
     </row>
@@ -7875,12 +8123,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="33"/>
       <c r="I12" s="6"/>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="56"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="33"/>
     </row>
@@ -7910,9 +8158,9 @@
       <c r="L14" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="57"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="33"/>
     </row>
@@ -7942,9 +8190,9 @@
       <c r="L16" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="57"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="33"/>
     </row>
@@ -7972,7 +8220,7 @@
       <c r="L18" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="55"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -8085,8 +8333,273 @@
     <row r="44" spans="12:12">
       <c r="L44" s="14"/>
     </row>
+    <row r="57" spans="3:10" ht="13" thickBot="1"/>
+    <row r="58" spans="3:10" ht="13" thickTop="1">
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="31"/>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="58"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="33"/>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="C60" s="32"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="33"/>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="C61" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="58"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="33"/>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="C62" s="32"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="33"/>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63" s="32"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="33"/>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="C64" s="32"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="33"/>
+    </row>
+    <row r="65" spans="3:10">
+      <c r="C65" s="40"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="41"/>
+    </row>
+    <row r="66" spans="3:10">
+      <c r="C66" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="33"/>
+    </row>
+    <row r="67" spans="3:10">
+      <c r="C67" s="64">
+        <v>43931</v>
+      </c>
+      <c r="D67" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="63"/>
+      <c r="H67" s="65">
+        <v>400</v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="J67" s="33"/>
+    </row>
+    <row r="68" spans="3:10">
+      <c r="C68" s="64">
+        <v>43936</v>
+      </c>
+      <c r="D68" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G68" s="63"/>
+      <c r="H68" s="65">
+        <v>500</v>
+      </c>
+      <c r="I68" s="6"/>
+      <c r="J68" s="33"/>
+    </row>
+    <row r="69" spans="3:10">
+      <c r="C69" s="64">
+        <v>43936</v>
+      </c>
+      <c r="D69" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="63"/>
+      <c r="H69" s="65">
+        <v>600</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="33"/>
+    </row>
+    <row r="70" spans="3:10">
+      <c r="C70" s="32"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="33"/>
+    </row>
+    <row r="71" spans="3:10">
+      <c r="C71" s="32"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="33"/>
+    </row>
+    <row r="72" spans="3:10">
+      <c r="C72" s="32"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="33"/>
+    </row>
+    <row r="73" spans="3:10">
+      <c r="C73" s="40"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="41"/>
+    </row>
+    <row r="74" spans="3:10" ht="14.5">
+      <c r="C74" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="66">
+        <v>1500</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="33"/>
+    </row>
+    <row r="75" spans="3:10">
+      <c r="C75" s="32"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="33"/>
+    </row>
+    <row r="76" spans="3:10">
+      <c r="C76" s="32"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="33"/>
+    </row>
+    <row r="77" spans="3:10">
+      <c r="C77" s="32"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="33"/>
+    </row>
+    <row r="78" spans="3:10" ht="13" thickBot="1">
+      <c r="C78" s="34"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="36"/>
+    </row>
+    <row r="79" spans="3:10" ht="13" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="L14:M14"/>
@@ -8094,11 +8607,6 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
